--- a/biology/Botanique/Aubépine_du_Mexique/Aubépine_du_Mexique.xlsx
+++ b/biology/Botanique/Aubépine_du_Mexique/Aubépine_du_Mexique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_du_Mexique</t>
+          <t>Aubépine_du_Mexique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Crataegus mexicana
 L'aubépine du Mexique, aussi appelée Tejocote, du náhuatl  "texocotl" qui signifie "pierre acide" (Crataegus mexicana), est une espèce de plantes à fleurs de la famille des Rosaceae. C'est une aubépines originaire de l'État de Chiapas au Mexique et du Guatemala, Honduras, Costa Rica en Amérique centrale.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_du_Mexique</t>
+          <t>Aubépine_du_Mexique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mespilus pubescens, non Presl (1822) nec Pohl (1815) nec Wendl. (1823).
 Crataegus pubescens (H.B.K.) Steud., non Presl (1826).
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_du_Mexique</t>
+          <t>Aubépine_du_Mexique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbuste ou un arbre de 5 à 10 m de haut avec une couronne dense et des rameaux avec ou sans épines selon les variétés.
 Ses feuilles ovales de 4 à 8 cm de long à bords dentelés sont semi-persistantes.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_du_Mexique</t>
+          <t>Aubépine_du_Mexique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aubépine du Mexique est rustique jusqu'en zone USDA 7 (-17 à −12 °C).
 La multiplication se fait par semis (avec un bon pourcentage de levée et fructification entre 5 et 8 ans[réf. nécessaire]) et par greffage.
@@ -595,7 +613,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aub%C3%A9pine_du_Mexique</t>
+          <t>Aubépine_du_Mexique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -613,12 +631,14 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fruit riche en vitamine C était très consommé au Mexique cru, cuit ou en conserves mais il est tombé un peu en désuétude. Il était utilisé par les Mexicains comme offrande à la période de la Toussaint. C'est aussi un des ingrédients principaux du Ponche, le punch traditionnel mexicain servi à Noël et pour le Nouvel An.
 En Afrique du Sud, on utilise le fruit comme alimentation pour le bétail.
 Son écorce est utilisée en médecine traditionnelle pour traiter les problèmes respiratoires.
-Son bois dur et compact est utilisé pour la fabrication de manches d'outils et comme combustible[2].
+Son bois dur et compact est utilisé pour la fabrication de manches d'outils et comme combustible.
 Francesco Franceschi a introduit l'espèce en Californie méridionale et dans l'Arizona sous le nom de Crataegus Guatemalensis ou Azérolier du Guatemala, pour l'utiliser avec succès comme porte-greffe de certains arbres fruitiers (pommier, poirier, cognassier et même prunier).
 </t>
         </is>
